--- a/Destination_coordinates.xlsx
+++ b/Destination_coordinates.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fab16832d8cf965b/Repositories/AE4423-Airline_Planning_and_Optimisation/Problem_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fab16832d8cf965b/Repositories/AE4423-Airline_Planning_and_Optimisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104825F1DF7A805ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF8B1A1-BF81-4517-B1AF-BF0089274C02}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC104825F1DF7A805ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7949DBF-AF1B-4D87-A4D3-D90E236D2798}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="210" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1185" windowWidth="30600" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -460,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -565,7 +574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -615,7 +624,7 @@
         <v>62.408901210000003</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -665,7 +674,7 @@
         <v>13.74720001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -715,7 +724,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -763,9 +772,14 @@
       </c>
       <c r="P6">
         <v>1734</v>
+      </c>
+      <c r="Q6">
+        <f>MAX(B6:P6)</f>
+        <v>975551</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>